--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,31 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>hate</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>shit</t>
@@ -73,18 +76,9 @@
     <t>crazy</t>
   </si>
   <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -109,15 +103,15 @@
     <t>great</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -127,40 +121,31 @@
     <t>worth</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>media</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>’</t>
+  </si>
+  <si>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
@@ -527,7 +512,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +520,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +581,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -646,13 +631,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9807692307692307</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,7 +652,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>0.9</v>
@@ -696,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9333333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +731,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
-        <v>0.7241379310344828</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="L6">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +781,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,16 +802,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7">
-        <v>0.6842105263157895</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +831,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8421052631578947</v>
+        <v>0.8</v>
       </c>
       <c r="C8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,16 +852,16 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K8">
-        <v>0.68</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M8">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K9">
-        <v>0.5555555555555556</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +931,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>0.5333333333333333</v>
+        <v>0.55</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +981,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.4444444444444444</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1031,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6595744680851063</v>
+        <v>0.6159420289855072</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1064,19 +1049,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K12">
-        <v>0.3958333333333333</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13">
-        <v>0.3939393939393939</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1138,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1131,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6014492753623188</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,19 +1149,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K14">
-        <v>0.2786885245901639</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L14">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="M14">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1188,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>792</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1181,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,19 +1199,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K15">
-        <v>0.2711864406779661</v>
+        <v>0.2604735883424408</v>
       </c>
       <c r="L15">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="M15">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1238,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>43</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1246,13 +1231,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5769230769230769</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1264,19 +1249,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>0.2459016393442623</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1288,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1296,7 +1281,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5217391304347826</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -1314,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>0.2153846153846154</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="L17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1338,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>51</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1346,13 +1331,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4615384615384616</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1364,19 +1349,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>0.1529411764705882</v>
+        <v>0.05185185185185185</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1388,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>72</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1396,13 +1381,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4285714285714285</v>
+        <v>0.05016722408026756</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1414,113 +1399,65 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>284</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>0.0499359795134443</v>
+      </c>
+      <c r="L19">
+        <v>39</v>
+      </c>
+      <c r="M19">
+        <v>39</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.0469208211143695</v>
+      </c>
+      <c r="L20">
         <v>16</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K19">
-        <v>0.1473684210526316</v>
-      </c>
-      <c r="L19">
-        <v>14</v>
-      </c>
-      <c r="M19">
-        <v>14</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1666666666666667</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>13</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>65</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.04946996466431095</v>
-      </c>
-      <c r="L20">
-        <v>14</v>
-      </c>
-      <c r="M20">
-        <v>14</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.04391891891891892</v>
-      </c>
-      <c r="C21">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>16</v>
-      </c>
-      <c r="E21">
-        <v>0.19</v>
-      </c>
-      <c r="F21">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>283</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K21">
-        <v>0.04814814814814815</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L21">
         <v>26</v>
@@ -1538,21 +1475,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>514</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>0.04367469879518072</v>
+        <v>0.0282258064516129</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1564,85 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K23">
-        <v>0.04097311139564661</v>
-      </c>
-      <c r="L23">
-        <v>32</v>
-      </c>
-      <c r="M23">
-        <v>32</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24">
-        <v>0.02922077922077922</v>
-      </c>
-      <c r="L24">
-        <v>18</v>
-      </c>
-      <c r="M24">
-        <v>18</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.02073732718894009</v>
-      </c>
-      <c r="L25">
-        <v>36</v>
-      </c>
-      <c r="M25">
-        <v>36</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1700</v>
+        <v>1687</v>
       </c>
     </row>
   </sheetData>
